--- a/biology/Zoologie/Capensibufo/Capensibufo.xlsx
+++ b/biology/Zoologie/Capensibufo/Capensibufo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Capensibufo est un genre d'amphibiens de la famille des Bufonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Capensibufo est un genre d'amphibiens de la famille des Bufonidae.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des crapauds relativement petit, C. rosei mesurant entre 2 et 3 cm.
 </t>
@@ -542,9 +556,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les cinq espèces de ce genre sont endémiques du Cap-Occidental en Afrique du Sud[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cinq espèces de ce genre sont endémiques du Cap-Occidental en Afrique du Sud.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces du genre Capensibufo vivent principalement dans les fynbos.
 </t>
@@ -604,9 +622,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon Amphibian Species of the World                      (22 sept. 2017)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Amphibian Species of the World                      (22 sept. 2017) :
 Capensibufo deceptus Channing et al., 2017
 Capensibufo magistratus Channing et al., 2017
 Capensibufo rosei (Hewitt, 1926)
@@ -639,7 +659,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Capensibufo signifie "Crapaud du Cap", il est composé de "Cap" et du suffixe latin -ensis "qui vit dans, qui habite" suivi de bufo (crapaud en latin) en référence à l'aire de répartition du genre, le Cap de Bonne-Espérance.
 </t>
@@ -670,7 +692,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Grandison, 1980 : A new genus of toad (Anura: Bufonidae) from the Republic of South Africa with remarks on its relationships. Bulletin of the British Museum (Natural History). Zoology, vol. 39, p. 293-298 (texte intégral).</t>
         </is>
